--- a/biology/Médecine/Louise_Brown/Louise_Brown.xlsx
+++ b/biology/Médecine/Louise_Brown/Louise_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise Brown, de nationalité britannique, est le premier « bébé éprouvette » au monde, c'est-à-dire conçu par fécondation in vitro (FIV). La naissance de Louise a ouvert un nouveau chapitre de la médecine relatif au traitement de l'infertilité.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise Brown naît le 25 juillet 1978 par césarienne à l'hôpital d'Oldham, au Royaume-Uni[1],[2],[3]. Elle devient le premier enfant issu d'une fécondation in vitro au monde. Cette naissance est encadré par deux médecins anglais, le docteur Patrick Steptoe, gynécologue et le docteur Robert Edwards, physiologiste à l'université de Cambridge[4].
-Dès l'annonce de cette nouvelle, le domicile des époux à Bristol est assiégé par les représentants des groupes de presse désireux d'obtenir des photos de l'enfant et des déclarations de la mère. Le «Daily Mail» obtient l'exclusivité pour la somme astronomique de 325.000 livres (ou 2.650.000 francs). LA POLUOUIOolique condamne en théorie l'insémination artificielle en considérant cet acte comme étant isolé tandis que le professeur Jacques Varangot de la maternité de Port-Royal à Paris déclare que « la technique employée est trop difficile pour voir son application généralisée »[5].
-Ses parents biologiques Lesley et John ont eu ensuite une seconde fille, Natalie, également conçue par FIV, la 40e au monde[6]. Lesley Brown décède à l'âge de 64 ans[7]
-Louise commence sa vie professionnelle dans les postes avant de travailler dans une entreprise de fret à Bristol (sud-ouest de l'Angleterre). Elle se marie en septembre 2004 avec un ancien agent de la sécurité, Wesley Mullinder. Elle accouche à Bristol, le 20 décembre 2006, d'un garçon, Cameron, conçu naturellement[6] et né deux semaines après le décès de John Brown, le père de Louise[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise Brown naît le 25 juillet 1978 par césarienne à l'hôpital d'Oldham, au Royaume-Uni. Elle devient le premier enfant issu d'une fécondation in vitro au monde. Cette naissance est encadré par deux médecins anglais, le docteur Patrick Steptoe, gynécologue et le docteur Robert Edwards, physiologiste à l'université de Cambridge.
+Dès l'annonce de cette nouvelle, le domicile des époux à Bristol est assiégé par les représentants des groupes de presse désireux d'obtenir des photos de l'enfant et des déclarations de la mère. Le «Daily Mail» obtient l'exclusivité pour la somme astronomique de 325.000 livres (ou 2.650.000 francs). LA POLUOUIOolique condamne en théorie l'insémination artificielle en considérant cet acte comme étant isolé tandis que le professeur Jacques Varangot de la maternité de Port-Royal à Paris déclare que « la technique employée est trop difficile pour voir son application généralisée ».
+Ses parents biologiques Lesley et John ont eu ensuite une seconde fille, Natalie, également conçue par FIV, la 40e au monde. Lesley Brown décède à l'âge de 64 ans
+Louise commence sa vie professionnelle dans les postes avant de travailler dans une entreprise de fret à Bristol (sud-ouest de l'Angleterre). Elle se marie en septembre 2004 avec un ancien agent de la sécurité, Wesley Mullinder. Elle accouche à Bristol, le 20 décembre 2006, d'un garçon, Cameron, conçu naturellement et né deux semaines après le décès de John Brown, le père de Louise.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amandine (née en 1982), premier « bébé éprouvette » de nationalité française.</t>
         </is>
